--- a/articulosDelProyecto/articulo_TG1/8_datasets_n_images/question.xlsx
+++ b/articulosDelProyecto/articulo_TG1/8_datasets_n_images/question.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\dauruxu\articulosDelProyecto\articulo_TG1\8_datasets_n_images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ronald Fernando\dauruxu\articulosDelProyecto\articulo_TG1\8_datasets_n_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4D3FB5-847D-41F7-843B-C4A090A27E5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B409D-957D-401B-B896-2AE6C52982C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33870" yWindow="1650" windowWidth="21585" windowHeight="13020" xr2:uid="{2D970569-5474-4C6C-8798-B34C2B657BAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D970569-5474-4C6C-8798-B34C2B657BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>Perceived Scale Test (PSS)</t>
   </si>
@@ -162,18 +162,6 @@
 3b I crave food all the time.</t>
   </si>
   <si>
-    <t>Item 1) In the last month, how often have you been upset because of something that happened unexpectedly?</t>
-  </si>
-  <si>
-    <t>Item 3) In the last month, how often have you felt nervous and “stressed”?</t>
-  </si>
-  <si>
-    <t>Item 7) In the last month, how often have you been able to control irritations in your life?</t>
-  </si>
-  <si>
-    <t>Item 9) In the last month, how often have you been angered because of things that were outside of your control?</t>
-  </si>
-  <si>
     <t>QID</t>
   </si>
   <si>
@@ -288,15 +276,6 @@
     <t>In the past month, were there times when you tried to cut back or quit smoking?</t>
   </si>
   <si>
-    <t>Emotions
-In the past month, have you :
-d. Felt sad almost all the time?
-Drink
-Item 13) In the past month, about how many times did you actually get drunk?
-Eating
-Item 2) Do you usually snack instead of eating regular meals?</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -319,6 +298,54 @@
   </si>
   <si>
     <t>Ed</t>
+  </si>
+  <si>
+    <t>Eat</t>
+  </si>
+  <si>
+    <t>Do you usually snack instead of eating regular meals?</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>In the last month, how often have you been upset because of something that happened unexpectedly?</t>
+  </si>
+  <si>
+    <t>In the last month, how often have you felt nervous and “stressed”?</t>
+  </si>
+  <si>
+    <t>In the last month, how often have you been able to control irritations in your life?</t>
+  </si>
+  <si>
+    <t>In the last month, how often have you been angered because of things that were outside of your control?</t>
+  </si>
+  <si>
+    <t>Activity/Emotion</t>
+  </si>
+  <si>
+    <t>Anger</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>Drowsiness</t>
+  </si>
+  <si>
+    <t>Depression (Sadness)</t>
+  </si>
+  <si>
+    <t>Anxiety/Stress</t>
+  </si>
+  <si>
+    <t>Sad/Eat</t>
+  </si>
+  <si>
+    <t>Anxiety/Eat</t>
+  </si>
+  <si>
+    <t>Anxiety/Stress::Sad/Fear</t>
   </si>
 </sst>
 </file>
@@ -691,17 +718,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA78BF0-5965-4753-9455-D3018247C4F0}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="144.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -710,22 +739,22 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -744,8 +773,14 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -764,8 +799,14 @@
       <c r="E3">
         <v>3</v>
       </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -784,8 +825,14 @@
       <c r="E4">
         <v>7</v>
       </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -804,8 +851,14 @@
       <c r="E5">
         <v>9</v>
       </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -822,10 +875,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -842,10 +898,13 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -862,10 +921,13 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -882,10 +944,16 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -902,10 +970,13 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -922,10 +993,13 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -942,10 +1016,16 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -964,8 +1044,14 @@
       <c r="E13">
         <v>3</v>
       </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
       <c r="H13" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,8 +1070,14 @@
       <c r="E14">
         <v>4</v>
       </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
       <c r="H14" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1004,8 +1096,14 @@
       <c r="E15">
         <v>6</v>
       </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
       <c r="H15" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1024,11 +1122,17 @@
       <c r="E16">
         <v>14</v>
       </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
       <c r="H16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17">
         <v>4</v>
       </c>
@@ -1041,11 +1145,17 @@
       <c r="E17">
         <v>1</v>
       </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
       <c r="H17" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18">
         <v>4</v>
       </c>
@@ -1058,11 +1168,17 @@
       <c r="E18">
         <v>2</v>
       </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
       <c r="H18" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19">
         <v>4</v>
       </c>
@@ -1075,11 +1191,17 @@
       <c r="E19">
         <v>3</v>
       </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
       <c r="H19" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20">
         <v>4</v>
       </c>
@@ -1092,11 +1214,17 @@
       <c r="E20">
         <v>5</v>
       </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
       <c r="H20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21">
         <v>4</v>
       </c>
@@ -1109,11 +1237,17 @@
       <c r="E21">
         <v>6</v>
       </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22">
         <v>4</v>
       </c>
@@ -1126,11 +1260,17 @@
       <c r="E22">
         <v>7</v>
       </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
       <c r="H22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23">
         <v>4</v>
       </c>
@@ -1143,11 +1283,17 @@
       <c r="E23">
         <v>9</v>
       </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
       <c r="H23" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>5</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1157,240 +1303,294 @@
       <c r="E24">
         <v>7</v>
       </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
       <c r="H24" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>6</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25">
         <v>9</v>
       </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
       <c r="H25" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D26">
         <v>9</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D29">
         <v>9</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
       <c r="D31">
         <v>9</v>
       </c>
-      <c r="E31">
-        <v>8</v>
+      <c r="E31" t="s">
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D32">
         <v>9</v>
       </c>
-      <c r="E32" t="s">
-        <v>68</v>
+      <c r="E32">
+        <v>13</v>
       </c>
       <c r="F32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G32" t="s">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="E33">
-        <v>13</v>
-      </c>
-      <c r="F33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" ht="180" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43">
         <v>12</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" ht="180" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" ht="195" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/articulosDelProyecto/articulo_TG1/8_datasets_n_images/question.xlsx
+++ b/articulosDelProyecto/articulo_TG1/8_datasets_n_images/question.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ronald Fernando\dauruxu\articulosDelProyecto\articulo_TG1\8_datasets_n_images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\Documents\dauruxu\articulosDelProyecto\articulo_TG1\8_datasets_n_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B409D-957D-401B-B896-2AE6C52982C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFB917A-3AA1-4417-9451-E7605EDC2E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D970569-5474-4C6C-8798-B34C2B657BAA}"/>
+    <workbookView xWindow="1845" yWindow="2805" windowWidth="16560" windowHeight="11430" xr2:uid="{2D970569-5474-4C6C-8798-B34C2B657BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="166">
   <si>
     <t>Perceived Scale Test (PSS)</t>
   </si>
@@ -56,12 +56,6 @@
     <t>Maslach Burnout Inventory</t>
   </si>
   <si>
-    <t>Escala de Desgaste Ocupacional</t>
-  </si>
-  <si>
-    <t>Cuestionario para la Evaluación del Estrés</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cuestionario psicosocial de Copenhague </t>
   </si>
   <si>
@@ -74,94 +68,6 @@
     <t>Questionaire</t>
   </si>
   <si>
-    <t>Item 12) Me siento con mucha energía en mi trabajo.
-Item 14) Creo que trabajo demasiado.
-Item 16) Trabajar directamente con alumnos/as me produce estrés.
-Item 18) Me siento motivado después de trabajar en contacto con alumnos/as.</t>
-  </si>
-  <si>
-    <t>Item 7) Me cuesta mucho ser cortés con los usuarios de mi trabajo.
-Item 10) Hace mucho tiempo que dejé de hacer mi trabajo con pasión.
-Item 14) Las situaciones a las que me enfrento en mi trabajo no me provocan tensión alguna.
-Item 16) En mi trabajo todos me parecen extraños, por lo cual no me interesa interactuar con ellos.
-Item 23) Aunque un usuario de mi trabajo sea descortés conmigo, lo trato bien.
-Item 32) Te sientes deprimido (muy triste).
-Item 34) Tienes dolores de cabeza.
-Item 41) Te sientes desesperado (ansioso).
-Item 43) Te duelen las articulaciones de brazos y piernas.
-Item 47) Tienes dolores en el abdomen.
-Item 49) Te duele la espalda y el cuello
-Item 59) Te duele el pecho.</t>
-  </si>
-  <si>
-    <t>Item 1) Dolores en el cuello y espalda o tensión muscular.
-Item 3) Problemas respiratorios.
-Item 4) Dolor de cabeza.
-Item 5) Trastornos del sueño como somnolencia durante el día o desvelo en la noche.
-Item 10) Dificultad para permanecer quieto o dificultad para iniciar actividades.
-Item 11) Dificultad en las relaciones con otras personas .
-Item 12) Sensación de aislamiento y desinterés.
-Item 17) Cansancio, tedio o desgano.
-Item 24) Sentimiento de irritabilidad, actitudes y pensamientos negativos.
-Item 25) Sentimiento de angustia, preocupación o tristeza.
-Item 28) Consumo de bebidas alcohólicas o café o cigarrillo .
-Item 30) Comportamientos rígidos, obstinación o terquedad.</t>
-  </si>
-  <si>
-    <t>Exigencias psicológicas cuantitativas
-Item 5) ¿Tienes que trabajar muy rápido?
-Item 11) ¿Tienes que quedarte después de la hora establecida de salida? 
-Exigencias de esconder emociones
-Item 24) ¿Tu trabajo requiere que escondas tus emociones?
-Exigencias psicológicas sensoriales
-Item 25) ¿Tu trabajo requiere mucha concentración?
-Item 27) ¿Tu trabajo requiere atención constante?
-Posibilidades de relación social
-Item 81) ¿Tu puesto de trabajo se encuentra aislado del de tus compañeros o compañeras?
-Item 82) ¿Puedes hablar con tus compañeros o compañeras mientras estás trabajando?
-Sentimiento de grupo
-Item 83) ¿Hay un buen ambiente entre tú y tus compañeros/as de trabajo?</t>
-  </si>
-  <si>
-    <t>1. Sadness
-0. I do not feel sad.
-1. I feel sad much of the time.
-2. I am sad all the time.
-3. I am so sad or unhappy that I can't stand it.
-10. Crying
-0. I don't cry anymore than I used to.
-1. I cry more than I used to.
-2. I cry over every little thing.
-3. I feel like crying, but I can't.
-11. Agitation
-0. I am no more restless or wound up than usual.
-1. I feel more restless or wound up than usual.
-2. I am so restless or agitated, it's hard to stay still.
-3. I am so restless or agitated that I have to keep
-moving or doing something.
-12. Loss of Interest
-0. I have not lost interest in other people or
-activities.
-1. I am less interested in other people or things
-than before.
-2. I have lost most of my interest in other people or
-things.
-3. It's hard to get interested in anything.
-17. Irritability
-0. I am not more irritable than usual.
-1. I am more irritable than usual.
-2. I am much more irritable than usual.
-3. I am irritable all the time.
-18. Changes in Appetite
-0. I have not experienced any change in my appetite.
-1a My appetite is somewhat less than usual.
-1b My appetite is somewhat greater than usual.
-2a My appetite is much less than before.
-2b My appetite is much greater than usual.
-3a I have no appetite at all.
-3b I crave food all the time.</t>
-  </si>
-  <si>
     <t>QID</t>
   </si>
   <si>
@@ -171,24 +77,9 @@
     <t>QOFSELITEMS</t>
   </si>
   <si>
-    <t>I experienced breathing difficulty (e.g. excessively rapid breathing, breathlessness in the absence of physical exertion)</t>
-  </si>
-  <si>
     <t>I experienced trembling (e.g. in the hands)</t>
   </si>
   <si>
-    <t>I found myself getting agitated</t>
-  </si>
-  <si>
-    <t>I found it difficult to relax</t>
-  </si>
-  <si>
-    <t>I felt down-hearted and blue</t>
-  </si>
-  <si>
-    <t>I was unable to become enthusiastic about anything</t>
-  </si>
-  <si>
     <t>I felt scared without any good reason</t>
   </si>
   <si>
@@ -249,15 +140,9 @@
     <t>During the past month, how often have you had trouble staying awake while driving, eating meals, or engaging in social activity?</t>
   </si>
   <si>
-    <t>Affair</t>
-  </si>
-  <si>
     <t>Aerobic Excercise</t>
   </si>
   <si>
-    <t>Tobbaco Use</t>
-  </si>
-  <si>
     <t>In the past month, how often did you engage in aerobic exercise?</t>
   </si>
   <si>
@@ -276,9 +161,6 @@
     <t>In the past month, were there times when you tried to cut back or quit smoking?</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Emotion</t>
   </si>
   <si>
@@ -288,12 +170,6 @@
     <t>In the past month, have you : Felt sad almost all the time?</t>
   </si>
   <si>
-    <t>Sad</t>
-  </si>
-  <si>
-    <t>Drink Alcohol</t>
-  </si>
-  <si>
     <t>In the past month, about how many times did you actually get drunk?</t>
   </si>
   <si>
@@ -321,9 +197,6 @@
     <t>In the last month, how often have you been angered because of things that were outside of your control?</t>
   </si>
   <si>
-    <t>Activity/Emotion</t>
-  </si>
-  <si>
     <t>Anger</t>
   </si>
   <si>
@@ -333,19 +206,331 @@
     <t>Drowsiness</t>
   </si>
   <si>
-    <t>Depression (Sadness)</t>
-  </si>
-  <si>
-    <t>Anxiety/Stress</t>
-  </si>
-  <si>
-    <t>Sad/Eat</t>
-  </si>
-  <si>
-    <t>Anxiety/Eat</t>
-  </si>
-  <si>
-    <t>Anxiety/Stress::Sad/Fear</t>
+    <t>Sadness</t>
+  </si>
+  <si>
+    <t>Crying</t>
+  </si>
+  <si>
+    <t>Agitation</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>Disgust/Loss of Interest</t>
+  </si>
+  <si>
+    <t>Changes in Appetite</t>
+  </si>
+  <si>
+    <t>Anger/Irritability</t>
+  </si>
+  <si>
+    <t>I do not feel sad</t>
+  </si>
+  <si>
+    <t>I feel sad much of the time</t>
+  </si>
+  <si>
+    <t>I am sad all the time</t>
+  </si>
+  <si>
+    <t>I am so sad or unhappy that I can't stand it</t>
+  </si>
+  <si>
+    <t>I don't cry anymore than I used to</t>
+  </si>
+  <si>
+    <t>I cry more than I used to</t>
+  </si>
+  <si>
+    <t>I cry over every little thing</t>
+  </si>
+  <si>
+    <t>I feel like crying, but I can't</t>
+  </si>
+  <si>
+    <t>I am no more restless or wound up than usual</t>
+  </si>
+  <si>
+    <t>I feel more restless or wound up than usual</t>
+  </si>
+  <si>
+    <t>I am so restless or agitated, it's hard to stay still</t>
+  </si>
+  <si>
+    <t>I am so restless or agitated that I have to keep moving or doing something</t>
+  </si>
+  <si>
+    <t>I have not lost interest in other people or activities</t>
+  </si>
+  <si>
+    <t>I am less interested in other people or things than before</t>
+  </si>
+  <si>
+    <t>I have lost most of my interest in other people or things</t>
+  </si>
+  <si>
+    <t>It's hard to get interested in anything</t>
+  </si>
+  <si>
+    <t>I am not more irritable than usual</t>
+  </si>
+  <si>
+    <t>I am more irritable than usual</t>
+  </si>
+  <si>
+    <t>I am much more irritable than usual</t>
+  </si>
+  <si>
+    <t>I am irritable all the time</t>
+  </si>
+  <si>
+    <t>I have not experienced any change in my appetite</t>
+  </si>
+  <si>
+    <t>My appetite is somewhat less than usual</t>
+  </si>
+  <si>
+    <t>My appetite is somewhat greater than usual</t>
+  </si>
+  <si>
+    <t>My appetite is much less than before</t>
+  </si>
+  <si>
+    <t>My appetite is much greater than usual</t>
+  </si>
+  <si>
+    <t>I have no appetite at all</t>
+  </si>
+  <si>
+    <t>I crave food all the time</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>AFFAIR</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>Physical symptoms</t>
+  </si>
+  <si>
+    <t>Sadness, disgust</t>
+  </si>
+  <si>
+    <t>Physical symptoms - drowsiness</t>
+  </si>
+  <si>
+    <t>Sadness - depression</t>
+  </si>
+  <si>
+    <t>Eat - anxiety</t>
+  </si>
+  <si>
+    <t>Eat - sadness</t>
+  </si>
+  <si>
+    <t>Fear - anxiety or stress</t>
+  </si>
+  <si>
+    <t>Fear - anxiety</t>
+  </si>
+  <si>
+    <t>Restless - drowsiness</t>
+  </si>
+  <si>
+    <t>Restless - anxiety or drowsiness</t>
+  </si>
+  <si>
+    <t>Happiness</t>
+  </si>
+  <si>
+    <t>Disgust, Anger - stress</t>
+  </si>
+  <si>
+    <t>Quantitative work demands</t>
+  </si>
+  <si>
+    <t>Alcoholism</t>
+  </si>
+  <si>
+    <t>Eating habits</t>
+  </si>
+  <si>
+    <t>Smoking habits</t>
+  </si>
+  <si>
+    <t>Working directly with students causes me stress.</t>
+  </si>
+  <si>
+    <t>Although a user of my work is rude to me, I treat him well.</t>
+  </si>
+  <si>
+    <t>You have headaches.</t>
+  </si>
+  <si>
+    <t>Your arm and leg joints hurt.</t>
+  </si>
+  <si>
+    <t>You have pain in the abdomen.</t>
+  </si>
+  <si>
+    <t>Your back and neck hurts</t>
+  </si>
+  <si>
+    <t>Your chest hurts.</t>
+  </si>
+  <si>
+    <t>Neck and back pain or muscle tension.</t>
+  </si>
+  <si>
+    <t>Respiratory problems.</t>
+  </si>
+  <si>
+    <t>Headache.</t>
+  </si>
+  <si>
+    <t>You feel depressed (very sad).</t>
+  </si>
+  <si>
+    <t>In my work they all seem strange to me, so I am not interested in interacting with them.</t>
+  </si>
+  <si>
+    <t>The situations that I face in my work do not cause any tension.</t>
+  </si>
+  <si>
+    <t>A long time ago I stopped doing my job with passion.</t>
+  </si>
+  <si>
+    <t>I have a hard time being courteous to the users of my work.</t>
+  </si>
+  <si>
+    <t>I feel motivated after working in contact with students.</t>
+  </si>
+  <si>
+    <t>I think I work too much.</t>
+  </si>
+  <si>
+    <t>I was unable to become enthusiastic about anything.</t>
+  </si>
+  <si>
+    <t>I felt down-hearted and blue.</t>
+  </si>
+  <si>
+    <t>I found it difficult to relax.</t>
+  </si>
+  <si>
+    <t>I found myself getting agitated.</t>
+  </si>
+  <si>
+    <t>I experienced breathing difficulty (e.g. excessively rapid breathing, breathlessness in the absence of physical exertion).</t>
+  </si>
+  <si>
+    <t>Occupational burnout scale</t>
+  </si>
+  <si>
+    <t>Stress Assessment Questionnaire</t>
+  </si>
+  <si>
+    <t>You feel hopeless.</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Social interaction</t>
+  </si>
+  <si>
+    <t>Do you have to work very fast?</t>
+  </si>
+  <si>
+    <t>Do you have to stay after the established departure time?</t>
+  </si>
+  <si>
+    <t>Does your job require you to hide your emotions?</t>
+  </si>
+  <si>
+    <t>Does your job require a lot of concentration?</t>
+  </si>
+  <si>
+    <t>Does your job require constant attention?</t>
+  </si>
+  <si>
+    <t>Is your job isolated from that of your colleagues?</t>
+  </si>
+  <si>
+    <t>Can you talk to your colleagues while you are working?</t>
+  </si>
+  <si>
+    <t>Quantitative psychological demands</t>
+  </si>
+  <si>
+    <t>Requirements to hide emotions</t>
+  </si>
+  <si>
+    <t>Sensory psychological demands</t>
+  </si>
+  <si>
+    <t>Possibilities of social relationship</t>
+  </si>
+  <si>
+    <t>Anger, disgust</t>
+  </si>
+  <si>
+    <t>Sadness, fear</t>
+  </si>
+  <si>
+    <t>Alcohol, coffee, tobacco consumption</t>
+  </si>
+  <si>
+    <t>Sleep disorders such as drowsiness during the day or sleeplessness at night.</t>
+  </si>
+  <si>
+    <t>Difficulty staying still or difficulty starting activities.</t>
+  </si>
+  <si>
+    <t>Difficulty in relationships with other people.</t>
+  </si>
+  <si>
+    <t>Feeling of isolation and disinterest.</t>
+  </si>
+  <si>
+    <t>Tiredness, tedium or reluctance.</t>
+  </si>
+  <si>
+    <t>Feeling irritable, negative thoughts and attitudes.</t>
+  </si>
+  <si>
+    <t>Feeling of anguish, worry, or sadness.</t>
+  </si>
+  <si>
+    <t>Consumption of alcoholic beverages or coffee or cigarette.</t>
+  </si>
+  <si>
+    <t>Disgust, fear</t>
+  </si>
+  <si>
+    <t>Drowsiness, burnout</t>
   </si>
 </sst>
 </file>
@@ -361,12 +546,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -396,12 +587,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -718,43 +919,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA78BF0-5965-4753-9455-D3018247C4F0}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="144.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
+        <v>96</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -774,13 +980,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -800,13 +1006,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -826,13 +1032,13 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -852,13 +1058,13 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -875,13 +1081,16 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -898,13 +1107,16 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -921,13 +1133,16 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -944,16 +1159,16 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -970,13 +1185,16 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -993,13 +1211,16 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1016,16 +1237,16 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1045,13 +1266,13 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1071,13 +1292,13 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1097,13 +1318,13 @@
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1123,10 +1344,13 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1145,11 +1369,14 @@
       <c r="E17">
         <v>1</v>
       </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1168,11 +1395,14 @@
       <c r="E18">
         <v>2</v>
       </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1191,11 +1421,14 @@
       <c r="E19">
         <v>3</v>
       </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1214,11 +1447,14 @@
       <c r="E20">
         <v>5</v>
       </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1237,11 +1473,14 @@
       <c r="E21">
         <v>6</v>
       </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1260,11 +1499,14 @@
       <c r="E22">
         <v>7</v>
       </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1283,14 +1525,20 @@
       <c r="E23">
         <v>9</v>
       </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24">
         <v>5</v>
       </c>
@@ -1303,14 +1551,20 @@
       <c r="E24">
         <v>7</v>
       </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25">
         <v>6</v>
       </c>
@@ -1324,16 +1578,19 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26">
         <v>6</v>
       </c>
@@ -1347,16 +1604,19 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27">
         <v>6</v>
       </c>
@@ -1370,16 +1630,19 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28">
         <v>6</v>
       </c>
@@ -1393,16 +1656,19 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29">
         <v>6</v>
       </c>
@@ -1416,16 +1682,19 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30">
         <v>6</v>
       </c>
@@ -1439,16 +1708,19 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31">
         <v>6</v>
       </c>
@@ -1459,19 +1731,22 @@
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
         <v>57</v>
       </c>
-      <c r="G31" t="s">
-        <v>60</v>
-      </c>
       <c r="H31" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32">
         <v>6</v>
       </c>
@@ -1485,16 +1760,19 @@
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33">
         <v>6</v>
       </c>
@@ -1505,96 +1783,1611 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" t="s">
+        <v>141</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
       <c r="C42" s="1" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="D42">
         <v>12</v>
       </c>
+      <c r="E42">
+        <v>32</v>
+      </c>
+      <c r="F42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s">
+        <v>57</v>
+      </c>
       <c r="H42" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="180" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
       <c r="C43" s="1" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="D43">
         <v>12</v>
       </c>
+      <c r="E43">
+        <v>34</v>
+      </c>
+      <c r="F43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" t="s">
+        <v>99</v>
+      </c>
       <c r="H43" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="195" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
       <c r="C44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" t="s">
+        <v>99</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>49</v>
+      </c>
+      <c r="F47" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" t="s">
+        <v>99</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <v>59</v>
+      </c>
+      <c r="F48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" t="s">
+        <v>99</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s">
+        <v>164</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s">
+        <v>153</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58">
+        <v>12</v>
+      </c>
+      <c r="E58">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s">
+        <v>154</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>28</v>
+      </c>
+      <c r="F59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" t="s">
+        <v>155</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>61</v>
+      </c>
+      <c r="B60">
         <v>9</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>7</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" t="s">
+        <v>149</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" t="s">
+        <v>149</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>24</v>
+      </c>
+      <c r="F62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="5">
+        <v>7</v>
+      </c>
+      <c r="E63" s="5">
+        <v>25</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="5">
+        <v>7</v>
+      </c>
+      <c r="E64" s="5">
+        <v>27</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>81</v>
+      </c>
+      <c r="F65" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" t="s">
+        <v>152</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>82</v>
+      </c>
+      <c r="F66" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" t="s">
+        <v>152</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>68</v>
+      </c>
+      <c r="B67">
         <v>10</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>27</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>27</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>27</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>27</v>
+      </c>
+      <c r="E70" s="2">
+        <v>3</v>
+      </c>
+      <c r="F70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71">
+        <v>27</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>27</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>27</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>27</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>43</v>
+      </c>
+      <c r="G74" t="s">
+        <v>58</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>27</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s">
+        <v>59</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>27</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>43</v>
+      </c>
+      <c r="G76" t="s">
+        <v>59</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77">
+        <v>27</v>
+      </c>
+      <c r="E77" s="2">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>43</v>
+      </c>
+      <c r="G77" t="s">
+        <v>59</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>27</v>
+      </c>
+      <c r="E78" s="2">
+        <v>3</v>
+      </c>
+      <c r="F78" t="s">
+        <v>43</v>
+      </c>
+      <c r="G78" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>27</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s">
+        <v>66</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80">
+        <v>27</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" t="s">
+        <v>66</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>27</v>
+      </c>
+      <c r="E81" s="2">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>42</v>
+      </c>
+      <c r="G81" t="s">
+        <v>66</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82">
+        <v>27</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3</v>
+      </c>
+      <c r="F82" t="s">
+        <v>42</v>
+      </c>
+      <c r="G82" t="s">
+        <v>66</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>27</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>27</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>27</v>
+      </c>
+      <c r="E85" s="2">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" t="s">
+        <v>68</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>27</v>
+      </c>
+      <c r="E86" s="2">
+        <v>3</v>
+      </c>
+      <c r="F86" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" t="s">
+        <v>68</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>27</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>43</v>
+      </c>
+      <c r="G87" t="s">
+        <v>67</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>89</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>27</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F88" t="s">
+        <v>43</v>
+      </c>
+      <c r="G88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>27</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F89" t="s">
+        <v>43</v>
+      </c>
+      <c r="G89" t="s">
+        <v>67</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>27</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F90" t="s">
+        <v>43</v>
+      </c>
+      <c r="G90" t="s">
+        <v>67</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91">
+        <v>27</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F91" t="s">
+        <v>43</v>
+      </c>
+      <c r="G91" t="s">
+        <v>67</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92">
+        <v>27</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" t="s">
+        <v>43</v>
+      </c>
+      <c r="G92" t="s">
+        <v>67</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>27</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F93" t="s">
+        <v>43</v>
+      </c>
+      <c r="G93" t="s">
+        <v>67</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="1"/>
+      <c r="H94" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/articulosDelProyecto/articulo_TG1/8_datasets_n_images/question.xlsx
+++ b/articulosDelProyecto/articulo_TG1/8_datasets_n_images/question.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\Documents\dauruxu\articulosDelProyecto\articulo_TG1\8_datasets_n_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFB917A-3AA1-4417-9451-E7605EDC2E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CCD6CD-6476-4C69-A5F3-CDDB7A8BA233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="2805" windowWidth="16560" windowHeight="11430" xr2:uid="{2D970569-5474-4C6C-8798-B34C2B657BAA}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="23040" windowHeight="11430" xr2:uid="{2D970569-5474-4C6C-8798-B34C2B657BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA78BF0-5965-4753-9455-D3018247C4F0}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
